--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R41c988d57342470d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R4edd739efd654ef5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R4edd739efd654ef5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R62ef5e9a9a3549df"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R62ef5e9a9a3549df"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R1280caec28b14f5a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R1280caec28b14f5a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R3a4612c5abc540b0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R3a4612c5abc540b0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R7d67446b59e04872"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R7d67446b59e04872"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rd97afad868c54545"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rd97afad868c54545"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rd118d0d879294610"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rd118d0d879294610"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R5f5c3ab09618467a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R5f5c3ab09618467a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R3ecfc2fdd263422f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R3ecfc2fdd263422f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R11b795f983004a25"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R11b795f983004a25"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R07a896736bbd4846"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R07a896736bbd4846"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R2c938916746447ad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R2c938916746447ad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Re5ec56a28706442b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Re5ec56a28706442b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R7dc20f677c6d43d1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R7dc20f677c6d43d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R1b4c896d64f24e29"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R1b4c896d64f24e29"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R1ad5e7d32667455e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R1ad5e7d32667455e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rb272e1aa089f4fd4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rb272e1aa089f4fd4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R762c08dab3e441a8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R762c08dab3e441a8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R60db098cc6034358"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R60db098cc6034358"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R04c7a7ebf5834e15"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/60_JsonNestedObjects.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R04c7a7ebf5834e15"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Re020d568e62048d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
